--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>criando script</t>
+  </si>
+  <si>
+    <t>extraindo os dados</t>
   </si>
   <si>
     <t>bryan</t>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,16 +481,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>45017.4332175926</v>
@@ -504,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2">
         <v>45018.48315972222</v>
@@ -527,16 +530,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>45017.54890046296</v>
@@ -550,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>45005.41666666666</v>
@@ -576,16 +579,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>45021.33791666666</v>
@@ -599,16 +602,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
         <v>45021.33817129629</v>
@@ -625,22 +628,48 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2">
         <v>45021.3525</v>
       </c>
       <c r="H8" s="2">
         <v>45021.37728009259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45021.41443287037</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45021.41480324074</v>
       </c>
     </row>
   </sheetData>

--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +80,33 @@
   </si>
   <si>
     <t>ativo</t>
+  </si>
+  <si>
+    <t>01/04/2023 10:23:50</t>
+  </si>
+  <si>
+    <t>02/04/2023 11:35:45</t>
+  </si>
+  <si>
+    <t>01/04/2023 13:10:25</t>
+  </si>
+  <si>
+    <t>20/03/2023 10:00:00</t>
+  </si>
+  <si>
+    <t>05/04/2023 08:06:36</t>
+  </si>
+  <si>
+    <t>05/04/2023 08:06:58</t>
+  </si>
+  <si>
+    <t>05/04/2023 08:27:36</t>
+  </si>
+  <si>
+    <t>05/04/2023 09:56:47</t>
+  </si>
+  <si>
+    <t>14/04/2023 08:15:46</t>
   </si>
 </sst>
 </file>
@@ -441,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,8 +519,8 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2">
-        <v>45017.4332175926</v>
+      <c r="G2" t="s">
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>45017.75</v>
@@ -518,8 +545,8 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2">
-        <v>45018.48315972222</v>
+      <c r="G3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,8 +568,8 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2">
-        <v>45017.54890046296</v>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,8 +591,8 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2">
-        <v>45005.41666666666</v>
+      <c r="G5" t="s">
+        <v>25</v>
       </c>
       <c r="H5" s="2">
         <v>45006.63923611111</v>
@@ -588,10 +615,13 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45021.33791666666</v>
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45030.34452546296</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -613,8 +643,8 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2">
-        <v>45021.33817129629</v>
+      <c r="G7" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="2">
         <v>45021.37780092593</v>
@@ -639,8 +669,8 @@
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2">
-        <v>45021.3525</v>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
       <c r="H8" s="2">
         <v>45021.37728009259</v>
@@ -665,11 +695,34 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2">
-        <v>45021.41443287037</v>
+      <c r="G9" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="2">
         <v>45021.41480324074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
